--- a/test_signup/Amsterdam/NTDS_Groningen.xlsx
+++ b/test_signup/Amsterdam/NTDS_Groningen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17400" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="18600" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="198">
   <si>
     <t>E-mail</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -611,16 +608,16 @@
     <t>Jury Latin</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Wil je vrijwilliger zijn voor dit NTDS?</t>
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
@@ -984,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X55"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,18 +1013,18 @@
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1039,16 +1036,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -1057,66 +1054,63 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2"/>
       <c r="O2" s="2"/>
@@ -1126,28 +1120,28 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H3" s="2">
         <v>26</v>
@@ -1156,10 +1150,10 @@
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>5</v>
@@ -1173,28 +1167,28 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
@@ -1203,10 +1197,10 @@
         <v>4</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>5</v>
@@ -1217,29 +1211,29 @@
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H5" s="2">
         <v>3</v>
@@ -1248,10 +1242,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>5</v>
@@ -1265,28 +1259,28 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H6" s="2">
         <v>16</v>
@@ -1295,10 +1289,10 @@
         <v>16</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>5</v>
@@ -1315,33 +1309,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="2"/>
       <c r="O7" s="2"/>
@@ -1353,36 +1347,36 @@
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="2"/>
       <c r="O8" s="2"/>
@@ -1394,28 +1388,28 @@
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H9" s="2">
         <v>25</v>
@@ -1424,10 +1418,10 @@
         <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>5</v>
@@ -1441,36 +1435,36 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
@@ -1492,35 +1486,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>8</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>5</v>
@@ -1532,30 +1526,30 @@
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H12" s="2">
         <v>13</v>
@@ -1564,10 +1558,10 @@
         <v>13</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>5</v>
@@ -1578,37 +1572,37 @@
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="2"/>
       <c r="O13" s="2"/>
@@ -1619,31 +1613,31 @@
         <v>5</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H14" s="2">
         <v>11</v>
@@ -1652,10 +1646,10 @@
         <v>11</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>5</v>
@@ -1669,28 +1663,28 @@
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H15" s="2">
         <v>15</v>
@@ -1699,10 +1693,10 @@
         <v>15</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>5</v>
@@ -1714,28 +1708,28 @@
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" s="2">
         <v>14</v>
@@ -1744,10 +1738,10 @@
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>5</v>
@@ -1761,7 +1755,7 @@
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -1769,22 +1763,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H17" s="2">
         <v>5</v>
@@ -1793,10 +1787,10 @@
         <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>5</v>
@@ -1810,7 +1804,7 @@
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1818,30 +1812,30 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="2"/>
       <c r="O18" s="2"/>
@@ -1853,7 +1847,7 @@
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -1861,20 +1855,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="2">
         <v>23</v>
@@ -1883,10 +1877,10 @@
         <v>23</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>5</v>
@@ -1898,7 +1892,7 @@
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -1906,28 +1900,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" s="2"/>
       <c r="O20" s="2"/>
@@ -1939,7 +1933,7 @@
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -1947,23 +1941,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
@@ -1981,7 +1975,7 @@
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -1989,28 +1983,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L22" s="2"/>
       <c r="O22" s="2"/>
@@ -2023,7 +2017,7 @@
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -2031,23 +2025,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
@@ -2062,7 +2056,7 @@
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2070,20 +2064,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H24" s="2">
         <v>18</v>
@@ -2092,10 +2086,10 @@
         <v>18</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>5</v>
@@ -2110,7 +2104,7 @@
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2118,28 +2112,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" s="2"/>
       <c r="O25" s="2"/>
@@ -2150,7 +2144,7 @@
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2158,18 +2152,18 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H26" s="2">
         <v>8</v>
@@ -2177,11 +2171,11 @@
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="2"/>
       <c r="O26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="S26" s="2"/>
@@ -2190,7 +2184,7 @@
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -2198,20 +2192,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H27" s="2">
         <v>2</v>
@@ -2220,10 +2214,10 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>5</v>
@@ -2238,7 +2232,7 @@
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2246,20 +2240,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H28" s="2">
         <v>46</v>
@@ -2268,10 +2262,10 @@
         <v>46</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L28" s="2"/>
       <c r="O28" s="2"/>
@@ -2283,10 +2277,10 @@
         <v>5</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2294,24 +2288,24 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" s="2"/>
       <c r="O29" s="2"/>
@@ -2324,7 +2318,7 @@
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -2332,28 +2326,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" s="2"/>
       <c r="O30" s="2"/>
@@ -2365,7 +2359,7 @@
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -2373,28 +2367,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>5</v>
@@ -2408,7 +2402,7 @@
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2416,28 +2410,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>5</v>
@@ -2451,7 +2445,7 @@
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -2459,28 +2453,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L33" s="2"/>
       <c r="O33" s="2"/>
@@ -2492,7 +2486,7 @@
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -2500,22 +2494,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="2">
         <v>34</v>
@@ -2524,10 +2518,10 @@
         <v>34</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>5</v>
@@ -2541,7 +2535,7 @@
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -2549,22 +2543,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H35" s="2">
         <v>33</v>
@@ -2573,10 +2567,10 @@
         <v>33</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>5</v>
@@ -2587,7 +2581,7 @@
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V35" s="2"/>
     </row>
@@ -2596,20 +2590,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H36" s="2">
         <v>36</v>
@@ -2618,10 +2612,10 @@
         <v>36</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>5</v>
@@ -2632,7 +2626,7 @@
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V36" s="2"/>
     </row>
@@ -2641,20 +2635,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H37" s="2">
         <v>35</v>
@@ -2663,10 +2657,10 @@
         <v>35</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>5</v>
@@ -2677,7 +2671,7 @@
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V37" s="2"/>
     </row>
@@ -2686,28 +2680,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L38" s="2"/>
       <c r="O38" s="2"/>
@@ -2716,7 +2710,7 @@
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V38" s="2"/>
     </row>
@@ -2725,28 +2719,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L39" s="2"/>
       <c r="O39" s="2"/>
@@ -2758,7 +2752,7 @@
       </c>
       <c r="U39" s="2"/>
       <c r="V39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -2766,28 +2760,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L40" s="2"/>
       <c r="O40" s="2"/>
@@ -2797,7 +2791,7 @@
       </c>
       <c r="U40" s="2"/>
       <c r="V40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -2805,20 +2799,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H41" s="2">
         <v>42</v>
@@ -2827,10 +2821,10 @@
         <v>42</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>5</v>
@@ -2842,7 +2836,7 @@
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -2850,28 +2844,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L42" s="2"/>
       <c r="O42" s="2"/>
@@ -2883,7 +2877,7 @@
       </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -2891,22 +2885,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H43" s="2">
         <v>40</v>
@@ -2915,10 +2909,10 @@
         <v>40</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>5</v>
@@ -2929,10 +2923,10 @@
         <v>5</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -2940,20 +2934,20 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H44" s="2">
         <v>44</v>
@@ -2962,10 +2956,10 @@
         <v>44</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>5</v>
@@ -2979,7 +2973,7 @@
       </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -2987,22 +2981,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H45" s="2">
         <v>43</v>
@@ -3011,10 +3005,10 @@
         <v>43</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>5</v>
@@ -3028,7 +3022,7 @@
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3036,28 +3030,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L46" s="2"/>
       <c r="O46" s="2"/>
@@ -3068,10 +3062,10 @@
         <v>5</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -3079,22 +3073,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H47" s="2">
         <v>27</v>
@@ -3103,16 +3097,16 @@
         <v>27</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>5</v>
@@ -3122,7 +3116,7 @@
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -3130,28 +3124,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L48" s="2"/>
       <c r="O48" s="2"/>
@@ -3163,7 +3157,7 @@
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -3171,28 +3165,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L49" s="2"/>
       <c r="O49" s="2"/>
@@ -3202,7 +3196,7 @@
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -3210,20 +3204,20 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H50" s="2">
         <v>51</v>
@@ -3232,10 +3226,10 @@
         <v>51</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>5</v>
@@ -3244,7 +3238,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V50" s="2"/>
     </row>
@@ -3253,28 +3247,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L51" s="2"/>
       <c r="O51" s="2"/>
@@ -3283,7 +3277,7 @@
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V51" s="2"/>
     </row>
@@ -3292,20 +3286,20 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H52" s="2">
         <v>49</v>
@@ -3314,10 +3308,10 @@
         <v>49</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>5</v>
@@ -3331,7 +3325,7 @@
       </c>
       <c r="U52" s="2"/>
       <c r="V52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -3339,30 +3333,30 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L53" s="2"/>
       <c r="O53" s="2"/>
@@ -3374,7 +3368,7 @@
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -3382,28 +3376,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L54" s="2"/>
       <c r="O54" s="2"/>
@@ -3412,7 +3406,7 @@
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V54" s="2"/>
     </row>
@@ -3421,28 +3415,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L55" s="2"/>
       <c r="O55" s="2"/>

--- a/test_signup/Amsterdam/NTDS_Groningen.xlsx
+++ b/test_signup/Amsterdam/NTDS_Groningen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="615" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="1215" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="198">
   <si>
     <t>Nr.</t>
   </si>
@@ -1011,8 +1011,8 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:W55"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1175,9 +1175,7 @@
       <c r="K3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="O3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1223,9 +1221,7 @@
       <c r="K4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="O4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="U4" s="4" t="s">
@@ -1269,9 +1265,7 @@
       <c r="K5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="O5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1317,9 +1311,7 @@
       <c r="K6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L6" s="4"/>
       <c r="O6" s="4" t="s">
         <v>29</v>
       </c>
@@ -1449,9 +1441,7 @@
       <c r="K9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L9" s="4"/>
       <c r="O9" s="4" t="s">
         <v>28</v>
       </c>
@@ -1592,9 +1582,7 @@
       <c r="K12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L12" s="4"/>
       <c r="O12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="U12" s="4" t="s">
@@ -1682,9 +1670,7 @@
       <c r="K14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="O14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1730,9 +1716,7 @@
       <c r="K15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="O15" s="4" t="s">
         <v>28</v>
       </c>
@@ -1776,9 +1760,7 @@
       <c r="K16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="O16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1826,9 +1808,7 @@
       <c r="K17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="O17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1918,9 +1898,7 @@
       <c r="K19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="O19" s="4" t="s">
         <v>28</v>
       </c>
@@ -2084,7 +2062,9 @@
         <v>27</v>
       </c>
       <c r="K23" s="5"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="N23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2132,9 +2112,7 @@
       <c r="K24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="O24" s="4" t="s">
         <v>28</v>
       </c>
@@ -2204,7 +2182,9 @@
       <c r="E26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G26" s="4" t="s">
         <v>26</v>
       </c>
@@ -2212,9 +2192,11 @@
         <v>8</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="K26" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L26" s="4"/>
       <c r="O26" s="4" t="s">
@@ -2263,9 +2245,7 @@
       <c r="K27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="O27" s="4" t="s">
         <v>28</v>
       </c>
@@ -2482,9 +2462,7 @@
       <c r="K32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="O32" s="4" t="s">
         <v>28</v>
       </c>
@@ -2574,9 +2552,7 @@
       <c r="K34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="O34" s="4" t="s">
         <v>28</v>
       </c>
@@ -2624,9 +2600,7 @@
       <c r="K35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="O35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="U35" s="5" t="s">
@@ -2670,9 +2644,7 @@
       <c r="K36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="O36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="U36" s="4" t="s">
@@ -2716,9 +2688,7 @@
       <c r="K37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="O37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="U37" s="4" t="s">
@@ -2884,9 +2854,7 @@
       <c r="K41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="O41" s="4" t="s">
         <v>28</v>
       </c>
@@ -2974,9 +2942,7 @@
       <c r="K43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="O43" s="4" t="s">
         <v>28</v>
       </c>
@@ -3022,9 +2988,7 @@
       <c r="K44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="O44" s="4" t="s">
         <v>28</v>
       </c>
@@ -3072,9 +3036,7 @@
       <c r="K45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="O45" s="4" t="s">
         <v>28</v>
       </c>
@@ -3166,9 +3128,7 @@
       <c r="K47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L47" s="4"/>
       <c r="O47" s="4" t="s">
         <v>28</v>
       </c>
@@ -3298,9 +3258,7 @@
       <c r="K50" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L50" s="4"/>
       <c r="O50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="U50" s="4"/>
@@ -3338,7 +3296,9 @@
       <c r="K51" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L51" s="4"/>
+      <c r="L51" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="O51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="U51" s="4" t="s">
@@ -3382,9 +3342,7 @@
       <c r="K52" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="O52" s="4" t="s">
         <v>28</v>
       </c>
@@ -3470,7 +3428,9 @@
       <c r="K54" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L54" s="4"/>
+      <c r="L54" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="O54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="U54" s="4" t="s">
@@ -4351,7 +4311,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="str">
-        <f t="shared" ref="A194:A225" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
+        <f t="shared" ref="A194:A201" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
         <v/>
       </c>
     </row>
